--- a/data/trans_orig/P14B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852C0AB2-3F4B-49B8-A34F-ECC12312AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F3F1856-1E4C-444A-8E73-F32A23E8FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9BD62E8-25D2-448D-9512-9AFF7910C6D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE12A78A-86FB-428B-B56C-422A02A37AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="205">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>69,67%</t>
+    <t>83,95%</t>
   </si>
   <si>
     <t>47,58%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
   </si>
   <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>65,14%</t>
   </si>
   <si>
-    <t>30,33%</t>
+    <t>16,05%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>52,42%</t>
   </si>
   <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>57,62%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -229,436 +229,430 @@
     <t>43,5%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>44,55%</t>
   </si>
   <si>
-    <t>34,68%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2015 (Tasa respuesta: 1,52%)</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>54,31%</t>
   </si>
   <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>45,69%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2015 (Tasa respuesta: 1,52%)</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>71,45%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDAB075-AAC9-40B6-A3E0-F4BCB76812FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5DA449-A18F-4768-9E5A-CB0A35D2C7EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1692,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1704,13 @@
         <v>8065</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -1725,13 +1719,13 @@
         <v>52279</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -1740,13 +1734,13 @@
         <v>60344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,7 +1796,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D6208A-33B8-44FF-9DCE-B537B4AA612A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D091657-30D7-449C-B522-00D9521A2B1A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1838,7 +1832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1945,13 +1939,13 @@
         <v>5654</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -1960,13 +1954,13 @@
         <v>13425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -1975,13 +1969,13 @@
         <v>19079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +1990,13 @@
         <v>4709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2011,13 +2005,13 @@
         <v>22323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -2026,13 +2020,13 @@
         <v>27032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,13 +2094,13 @@
         <v>3537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2115,13 +2109,13 @@
         <v>15227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2130,13 +2124,13 @@
         <v>18764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,13 +2145,13 @@
         <v>4180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -2166,13 +2160,13 @@
         <v>25201</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -2181,13 +2175,13 @@
         <v>29381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,7 +2270,7 @@
         <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2291,7 +2285,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2324,7 +2318,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2339,7 +2333,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -2410,13 +2404,13 @@
         <v>9191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2425,13 +2419,13 @@
         <v>28652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2440,13 +2434,13 @@
         <v>37843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2455,13 @@
         <v>9905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -2476,13 +2470,13 @@
         <v>58222</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -2491,13 +2485,13 @@
         <v>68127</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645948D7-9D3D-45E0-8913-F5F429D77114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD9912-EFC4-4D9B-A124-95B403FA5204}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2589,7 +2583,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2696,13 +2690,13 @@
         <v>7783</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2711,13 +2705,13 @@
         <v>12535</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2726,13 +2720,13 @@
         <v>20318</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2741,13 @@
         <v>12677</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -2762,13 +2756,13 @@
         <v>43927</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>96</v>
@@ -2777,13 +2771,13 @@
         <v>56604</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2845,13 @@
         <v>8128</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2866,13 +2860,13 @@
         <v>24653</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2881,13 +2875,13 @@
         <v>32781</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2896,13 @@
         <v>9813</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -2917,13 +2911,13 @@
         <v>54255</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -2932,13 +2926,13 @@
         <v>64068</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,7 +3000,7 @@
         <v>600</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -3021,13 +3015,13 @@
         <v>3654</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3036,13 +3030,13 @@
         <v>4254</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3051,7 @@
         <v>1425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -3072,13 +3066,13 @@
         <v>24428</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -3087,13 +3081,13 @@
         <v>25853</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3155,13 @@
         <v>16511</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -3176,13 +3170,13 @@
         <v>40842</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3191,13 +3185,13 @@
         <v>57353</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3206,13 @@
         <v>23915</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3227,13 +3221,13 @@
         <v>122610</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -3242,13 +3236,13 @@
         <v>146525</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,7 +3298,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B17-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F3F1856-1E4C-444A-8E73-F32A23E8FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F0C924-311D-4069-8815-4EAD6C9D13DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AE12A78A-86FB-428B-B56C-422A02A37AE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F4C62EF-2D0A-47D8-A3B1-748290EF2060}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="209">
   <si>
     <t>Población cuya anemia le limita en 2012 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -79,25 +79,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,95%</t>
+    <t>83,11%</t>
   </si>
   <si>
     <t>47,58%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
   </si>
   <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,7 +106,7 @@
     <t>65,14%</t>
   </si>
   <si>
-    <t>16,05%</t>
+    <t>16,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,19 +115,19 @@
     <t>52,42%</t>
   </si>
   <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>57,62%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>49,33%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>50,64%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>49,36%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -202,13 +202,13 @@
     <t>11,35%</t>
   </si>
   <si>
-    <t>45,72%</t>
+    <t>45,96%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>41,16%</t>
+    <t>41,17%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -217,235 +217,247 @@
     <t>88,65%</t>
   </si>
   <si>
-    <t>54,28%</t>
+    <t>54,04%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>58,84%</t>
+    <t>58,83%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>33,86%</t>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya anemia le limita en 2016 (Tasa respuesta: 1,52%)</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
   </si>
   <si>
     <t>55,04%</t>
   </si>
   <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya anemia le limita en 2015 (Tasa respuesta: 1,52%)</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
+    <t>72,97%</t>
   </si>
   <si>
     <t>Población cuya anemia le limita en 2023 (Tasa respuesta: 3,56%)</t>
@@ -1064,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5DA449-A18F-4768-9E5A-CB0A35D2C7EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD85C39-40A3-4B84-936E-F0FE1132A2BB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1686,10 +1698,10 @@
         <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1704,13 +1716,13 @@
         <v>8065</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -1719,13 +1731,13 @@
         <v>52279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>58</v>
@@ -1734,13 +1746,13 @@
         <v>60344</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,7 +1808,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1815,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D091657-30D7-449C-B522-00D9521A2B1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE45B61A-A796-43BB-A2B6-0C1EF7D7975B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1832,7 +1844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1939,13 +1951,13 @@
         <v>5654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -1954,13 +1966,13 @@
         <v>13425</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -1969,13 +1981,13 @@
         <v>19079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1990,13 +2002,13 @@
         <v>4709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -2005,13 +2017,13 @@
         <v>22323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -2020,13 +2032,13 @@
         <v>27032</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2094,13 +2106,13 @@
         <v>3537</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -2109,13 +2121,13 @@
         <v>15227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2124,13 +2136,13 @@
         <v>18764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2157,13 @@
         <v>4180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -2160,13 +2172,13 @@
         <v>25201</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -2175,13 +2187,13 @@
         <v>29381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2282,7 @@
         <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2285,7 +2297,7 @@
         <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2330,7 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>30</v>
@@ -2333,7 +2345,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>30</v>
@@ -2404,13 +2416,13 @@
         <v>9191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -2419,13 +2431,13 @@
         <v>28652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -2434,13 +2446,13 @@
         <v>37843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2467,13 @@
         <v>9905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>55</v>
@@ -2470,13 +2482,13 @@
         <v>58222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -2485,13 +2497,13 @@
         <v>68127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,7 +2559,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD9912-EFC4-4D9B-A124-95B403FA5204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23828456-C45F-4414-9CFF-ECA35EEE6BE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2583,7 +2595,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2690,13 +2702,13 @@
         <v>7783</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -2705,13 +2717,13 @@
         <v>12535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2720,13 +2732,13 @@
         <v>20318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2753,13 @@
         <v>12677</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -2756,13 +2768,13 @@
         <v>43927</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>96</v>
@@ -2771,13 +2783,13 @@
         <v>56604</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2857,13 @@
         <v>8128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -2860,13 +2872,13 @@
         <v>24653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -2875,13 +2887,13 @@
         <v>32781</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2908,13 @@
         <v>9813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -2911,13 +2923,13 @@
         <v>54255</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>93</v>
@@ -2926,13 +2938,13 @@
         <v>64068</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3012,7 @@
         <v>600</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -3015,13 +3027,13 @@
         <v>3654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3030,13 +3042,13 @@
         <v>4254</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3063,7 @@
         <v>1425</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -3066,13 +3078,13 @@
         <v>24428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -3081,13 +3093,13 @@
         <v>25853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3167,13 @@
         <v>16511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -3170,13 +3182,13 @@
         <v>40842</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3185,13 +3197,13 @@
         <v>57353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3218,13 @@
         <v>23915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -3221,13 +3233,13 @@
         <v>122610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -3236,13 +3248,13 @@
         <v>146525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,7 +3310,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
